--- a/StructureDefinition-the-research-study.xlsx
+++ b/StructureDefinition-the-research-study.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$112</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,17 +313,200 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>ResearchStudy.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {firstCreated}
+</t>
+  </si>
+  <si>
+    <t>The instant when this resource ID was first associated with content on this server</t>
+  </si>
+  <si>
+    <t>Indicates when this resource ID was first associated with content on this server.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>ResearchStudy.implicitRules</t>
+    <t>ResearchStudy.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://build.fhir.org/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://build.fhir.org/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>The exact use of the source (and the possible implied Provenance.entity.role and agent.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. The source may correspond to Provenance.entity.what[x] or Provenance.agent.who[x], though it may be a more general or abstract reference. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://build.fhir.org/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://build.fhir.org/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>ResearchStudy.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>ResearchStudy.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -410,43 +596,25 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>EpochDefinitionReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/epoch-definition-reference}
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>EpochDefinition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/epoch-definition}
-</t>
-  </si>
-  <si>
     <t>Epoch Definition</t>
   </si>
   <si>
@@ -454,10 +622,6 @@
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -467,9 +631,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -566,28 +727,7 @@
     <t>ResearchStudy.label.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ResearchStudy.label.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.label.modifierExtension</t>
@@ -620,9 +760,6 @@
     <t>Kind of name.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>desc.</t>
   </si>
   <si>
@@ -770,9 +907,6 @@
   </si>
   <si>
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
@@ -1689,6 +1823,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1849,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1859,7 +2008,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.0234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1885,7 +2034,7 @@
     <col min="25" max="25" width="54.97265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="49.0234375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2022,7 +2171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -2136,7 +2285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -2250,7 +2399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -2344,27 +2493,27 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2381,23 +2530,21 @@
         <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>76</v>
@@ -2446,7 +2593,7 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
@@ -2458,7 +2605,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2467,7 +2614,7 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2476,20 +2623,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2501,16 +2648,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2536,44 +2683,44 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
       </c>
@@ -2581,7 +2728,7 @@
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2592,11 +2739,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2606,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2615,17 +2764,15 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>76</v>
@@ -2674,28 +2821,28 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2704,20 +2851,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>76</v>
@@ -2726,19 +2873,19 @@
         <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2788,19 +2935,19 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
@@ -2809,7 +2956,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2820,7 +2967,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2831,27 +2978,29 @@
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>76</v>
@@ -2888,29 +3037,31 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2928,13 +3079,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2952,18 +3101,20 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -3018,37 +3169,37 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3061,26 +3212,24 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>76</v>
       </c>
@@ -3128,7 +3277,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3140,7 +3289,7 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
@@ -3149,7 +3298,7 @@
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -3158,9 +3307,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3171,7 +3320,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -3180,18 +3329,20 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -3216,13 +3367,11 @@
         <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>76</v>
@@ -3240,19 +3389,19 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
@@ -3270,9 +3419,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3295,18 +3444,18 @@
         <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3330,13 +3479,11 @@
         <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>76</v>
@@ -3354,7 +3501,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -3366,27 +3513,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3403,21 +3550,23 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3466,7 +3615,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -3478,7 +3627,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -3496,9 +3645,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3521,15 +3670,17 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3554,13 +3705,13 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -3578,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3590,7 +3741,7 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -3608,13 +3759,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3630,18 +3781,20 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3690,7 +3843,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3702,31 +3855,31 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3745,15 +3898,17 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3802,7 +3957,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3814,7 +3969,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3823,7 +3978,7 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3832,9 +3987,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3845,7 +4000,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3857,13 +4012,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3902,31 +4057,29 @@
         <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3935,7 +4088,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3944,20 +4097,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3969,17 +4124,15 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4028,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -4040,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -4049,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4058,13 +4211,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4083,19 +4236,19 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4144,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -4156,7 +4309,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -4165,7 +4318,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4174,9 +4327,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4199,13 +4352,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4232,13 +4385,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4256,7 +4409,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -4268,7 +4421,7 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -4286,9 +4439,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4299,7 +4452,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4308,19 +4461,21 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4368,39 +4523,39 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4411,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4420,16 +4575,16 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4480,50 +4635,50 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4532,21 +4687,19 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4594,28 +4747,28 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4624,9 +4777,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4637,7 +4790,7 @@
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4646,16 +4799,16 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4706,22 +4859,22 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4733,12 +4886,12 @@
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4749,7 +4902,7 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4761,13 +4914,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4818,19 +4971,19 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4848,9 +5001,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4858,7 +5011,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
@@ -4867,19 +5020,19 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4906,13 +5059,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4930,10 +5083,10 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -4942,38 +5095,38 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4982,18 +5135,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5018,13 +5173,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -5042,28 +5197,28 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5072,41 +5227,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5130,13 +5289,13 @@
         <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>76</v>
@@ -5154,39 +5313,39 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5197,7 +5356,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -5206,16 +5365,16 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5242,13 +5401,13 @@
         <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>76</v>
@@ -5266,22 +5425,22 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5293,12 +5452,12 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5309,7 +5468,7 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5321,13 +5480,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5378,19 +5537,19 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -5408,9 +5567,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5421,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5430,16 +5589,16 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5490,43 +5649,43 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5542,21 +5701,21 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5604,7 +5763,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5616,16 +5775,16 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5634,13 +5793,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5653,26 +5812,22 @@
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5720,7 +5875,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5732,27 +5887,27 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5772,16 +5927,16 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5808,31 +5963,31 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5844,10 +5999,10 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5856,13 +6011,13 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>268</v>
       </c>
@@ -5872,22 +6027,22 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>269</v>
@@ -5920,13 +6075,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5947,36 +6102,36 @@
         <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5996,16 +6151,16 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6032,13 +6187,13 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
@@ -6056,7 +6211,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -6068,10 +6223,10 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -6086,9 +6241,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6099,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -6111,13 +6266,13 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6144,13 +6299,13 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -6168,22 +6323,22 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -6192,15 +6347,15 @@
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6223,13 +6378,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6256,13 +6411,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6280,7 +6435,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6292,10 +6447,10 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6307,12 +6462,12 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6332,16 +6487,16 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6368,13 +6523,13 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -6392,7 +6547,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6404,10 +6559,10 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6422,9 +6577,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6447,13 +6602,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6504,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6516,7 +6671,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
@@ -6525,7 +6680,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6534,20 +6689,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6559,15 +6714,17 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6616,71 +6773,75 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6728,39 +6889,39 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6771,7 +6932,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6783,13 +6944,13 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6816,10 +6977,10 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="Y44" t="s" s="2">
         <v>76</v>
@@ -6840,22 +7001,22 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6864,15 +7025,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6895,13 +7056,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6928,13 +7089,13 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
@@ -6952,7 +7113,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6964,16 +7125,16 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6982,9 +7143,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6995,7 +7156,7 @@
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -7007,13 +7168,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7040,13 +7201,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -7064,19 +7225,19 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
@@ -7094,9 +7255,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7116,23 +7277,19 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7156,13 +7313,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7180,7 +7337,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7192,10 +7349,10 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7204,15 +7361,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7223,7 +7380,7 @@
         <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7232,16 +7389,16 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7268,10 +7425,10 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="Y48" t="s" s="2">
         <v>76</v>
@@ -7292,43 +7449,43 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7344,20 +7501,18 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7382,13 +7537,13 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
@@ -7406,7 +7561,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7418,16 +7573,16 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7436,45 +7591,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7522,19 +7673,19 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>189</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7543,7 +7694,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7552,9 +7703,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7577,13 +7728,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7634,7 +7785,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7646,10 +7797,10 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7661,20 +7812,20 @@
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7686,16 +7837,16 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7722,13 +7873,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7746,10 +7897,10 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
@@ -7758,27 +7909,27 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7798,20 +7949,18 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7860,7 +8009,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7872,10 +8021,10 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7884,15 +8033,15 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7915,13 +8064,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>191</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7948,13 +8097,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7972,7 +8121,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7984,16 +8133,16 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8002,9 +8151,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8015,7 +8164,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -8027,17 +8176,15 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8062,13 +8209,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8086,19 +8233,19 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -8116,9 +8263,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8141,16 +8288,20 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8198,7 +8349,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8210,7 +8361,7 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8228,9 +8379,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8253,13 +8404,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8310,7 +8461,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8331,7 +8482,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8340,13 +8491,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8365,16 +8516,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8424,7 +8575,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8436,7 +8587,7 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -8445,7 +8596,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8454,13 +8605,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8479,19 +8630,19 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8540,7 +8691,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8552,7 +8703,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -8561,7 +8712,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8570,9 +8721,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8580,7 +8731,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>85</v>
@@ -8595,13 +8746,13 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8628,13 +8779,13 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8652,10 +8803,10 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>85</v>
@@ -8664,7 +8815,7 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -8682,9 +8833,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8692,7 +8843,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>85</v>
@@ -8707,13 +8858,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8740,13 +8891,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8764,10 +8915,10 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>85</v>
@@ -8776,7 +8927,7 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -8794,9 +8945,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8807,7 +8958,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8819,15 +8970,17 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8876,19 +9029,19 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
@@ -8906,9 +9059,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8919,7 +9072,7 @@
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8928,16 +9081,16 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8964,13 +9117,13 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>76</v>
@@ -8988,22 +9141,22 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9012,15 +9165,15 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9040,18 +9193,20 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9100,7 +9255,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9112,27 +9267,27 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9143,7 +9298,7 @@
         <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -9155,13 +9310,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9212,19 +9367,19 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>179</v>
+        <v>401</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -9233,7 +9388,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9242,20 +9397,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9267,17 +9422,15 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9326,19 +9479,19 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9347,7 +9500,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9356,13 +9509,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9375,26 +9528,24 @@
         <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9442,7 +9593,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9454,7 +9605,7 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9463,7 +9614,7 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9472,41 +9623,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9554,19 +9709,19 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9575,7 +9730,7 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9584,9 +9739,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9594,7 +9749,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>85</v>
@@ -9609,13 +9764,13 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9642,13 +9797,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9666,10 +9821,10 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>85</v>
@@ -9678,7 +9833,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9696,9 +9851,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9721,13 +9876,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9778,7 +9933,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9790,7 +9945,7 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
@@ -9808,9 +9963,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9830,16 +9985,16 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9890,7 +10045,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9902,38 +10057,38 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -9942,20 +10097,18 @@
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9980,13 +10133,13 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10004,22 +10157,22 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -10028,15 +10181,15 @@
         <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10056,16 +10209,16 @@
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>177</v>
+        <v>427</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10116,7 +10269,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10128,38 +10281,38 @@
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10171,17 +10324,15 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10230,19 +10381,19 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
@@ -10251,7 +10402,7 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10260,13 +10411,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10279,26 +10430,24 @@
         <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10346,7 +10495,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10358,7 +10507,7 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
@@ -10367,7 +10516,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10376,41 +10525,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>421</v>
+        <v>231</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10458,19 +10611,19 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>419</v>
+        <v>233</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -10479,7 +10632,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10488,9 +10641,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10498,7 +10651,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>85</v>
@@ -10513,13 +10666,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10570,10 +10723,10 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>85</v>
@@ -10582,10 +10735,10 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10597,12 +10750,12 @@
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10625,13 +10778,13 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10658,13 +10811,13 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -10682,7 +10835,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10694,10 +10847,10 @@
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10709,12 +10862,12 @@
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>433</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10737,13 +10890,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>274</v>
+        <v>444</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10794,7 +10947,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10806,10 +10959,10 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10821,12 +10974,12 @@
         <v>76</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10837,7 +10990,7 @@
         <v>74</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>76</v>
@@ -10846,21 +10999,19 @@
         <v>76</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10908,50 +11059,50 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>76</v>
+        <v>452</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
@@ -10963,18 +11114,18 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11022,22 +11173,22 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -11049,12 +11200,12 @@
         <v>76</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11065,7 +11216,7 @@
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>76</v>
@@ -11077,13 +11228,13 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>449</v>
+        <v>98</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>450</v>
+        <v>99</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11134,28 +11285,28 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11164,20 +11315,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -11189,15 +11340,17 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11246,19 +11399,19 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -11267,7 +11420,7 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11276,13 +11429,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11295,24 +11448,26 @@
         <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11360,7 +11515,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -11372,7 +11527,7 @@
         <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
@@ -11381,7 +11536,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11390,45 +11545,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>130</v>
+        <v>462</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>187</v>
+        <v>463</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
       </c>
@@ -11476,19 +11627,19 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
@@ -11497,7 +11648,7 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11506,9 +11657,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11516,7 +11667,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>85</v>
@@ -11531,13 +11682,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11588,10 +11739,10 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>85</v>
@@ -11600,10 +11751,10 @@
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11615,12 +11766,12 @@
         <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>76</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11643,13 +11794,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11676,13 +11827,13 @@
         <v>76</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>462</v>
+        <v>238</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>76</v>
@@ -11700,7 +11851,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11712,10 +11863,10 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
@@ -11727,12 +11878,12 @@
         <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11755,13 +11906,13 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11812,7 +11963,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11824,10 +11975,10 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11839,12 +11990,12 @@
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11867,16 +12018,18 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>173</v>
+        <v>482</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
@@ -11924,7 +12077,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11936,7 +12089,7 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>76</v>
@@ -11954,9 +12107,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11979,16 +12132,18 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>177</v>
+        <v>487</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>178</v>
+        <v>488</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12036,7 +12191,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>179</v>
+        <v>486</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12048,7 +12203,7 @@
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -12057,7 +12212,7 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12066,13 +12221,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12091,17 +12246,15 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>182</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -12150,7 +12303,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>184</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -12162,16 +12315,16 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12180,45 +12333,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12266,19 +12415,19 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
@@ -12287,7 +12436,7 @@
         <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12296,20 +12445,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>76</v>
@@ -12321,15 +12470,17 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>475</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -12378,19 +12529,19 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>474</v>
+        <v>111</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
@@ -12399,7 +12550,7 @@
         <v>76</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12408,13 +12559,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12427,22 +12578,26 @@
         <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>460</v>
+        <v>231</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12466,13 +12621,13 @@
         <v>76</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -12490,7 +12645,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>477</v>
+        <v>233</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -12502,7 +12657,7 @@
         <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>76</v>
@@ -12511,7 +12666,7 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12520,9 +12675,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12545,13 +12700,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12602,7 +12757,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12614,10 +12769,10 @@
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
@@ -12632,9 +12787,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12657,13 +12812,13 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>440</v>
+        <v>235</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12690,13 +12845,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>76</v>
+        <v>504</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -12714,7 +12869,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12726,10 +12881,10 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
@@ -12744,9 +12899,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12757,7 +12912,7 @@
         <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -12766,16 +12921,16 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12826,19 +12981,19 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -12856,9 +13011,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12881,13 +13036,13 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12938,7 +13093,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12950,7 +13105,7 @@
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
@@ -12968,9 +13123,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12993,13 +13148,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13050,7 +13205,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13071,7 +13226,7 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13080,13 +13235,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13105,16 +13260,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13164,7 +13319,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13176,7 +13331,7 @@
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13185,7 +13340,7 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -13194,13 +13349,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13219,19 +13374,19 @@
         <v>86</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>76</v>
@@ -13280,7 +13435,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13292,7 +13447,7 @@
         <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>76</v>
@@ -13301,7 +13456,7 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13310,9 +13465,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13335,13 +13490,13 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13368,13 +13523,13 @@
         <v>76</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>498</v>
+        <v>76</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>76</v>
@@ -13392,7 +13547,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -13404,7 +13559,7 @@
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
@@ -13422,9 +13577,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13432,10 +13587,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13447,13 +13602,13 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13480,13 +13635,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -13504,37 +13659,1069 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="AF103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F104" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG103" t="s" s="2">
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG104" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AH103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN112">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI111">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-the-research-study.xlsx
+++ b/StructureDefinition-the-research-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-study.xlsx
+++ b/StructureDefinition-the-research-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
